--- a/doc/templates解析.xlsx
+++ b/doc/templates解析.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C2694-3D8A-4E58-B5BD-E39171553658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998859C7-ACE6-40AE-BA31-1C9D9C148BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="雛形" sheetId="1" r:id="rId1"/>
+    <sheet name="login.html" sheetId="2" r:id="rId1"/>
+    <sheet name="base.html" sheetId="3" r:id="rId2"/>
+    <sheet name="雛形" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +26,3826 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+  <si>
+    <r>
+      <t xml:space="preserve">{% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"base.html"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"post"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"p-4 m-4 bg-light border border-success rounded form group"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>csrf_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>errors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}{% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>endfor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ユーザー ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"form-control"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"username"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>パスワード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"form-control"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn btn-success mt-4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ログインする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>endblock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DOCTYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"en"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>head</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>meta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>charset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"utf-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>meta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"viewport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"width=device-width, initial-scale=1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>meta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"本棚アプリで本のリストを管理できます。"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>meta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"keywords"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"本棚, 本, 管理, カテゴリ, アプリ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>endblock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <t>            | 本棚アプリ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://cdn.jsdelivr.net/npm/bootstrap@5.3.0/dist/css/bootstrap.min.css"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"stylesheet"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sha384-9ndCyUaIbzAi2FUVXJi0CjmCapSmO7SnpJef0486qhLnuZ2cdeRhO02iuK6FUUVM"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>crossorigin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"anonymous"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{% comment %} 追加のCSS読み込み用 {% endcomment %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"stylesheet"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text/css"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{% static 'book/css/style.css' %}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>head</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"navbar navbar-dark bg-success sticky-top"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"navbar-nav d-flex flex-row"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nav-link mx-3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{% url 'list-book' %}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>書籍一覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nav-link mx-3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{% url 'create-book' %}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>書籍登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{% comment %} ログイン有無で表示を変更 {% endcomment %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>is_authenticated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{% comment %} &lt;a class="nav-link mx-3" href="{% url 'accounts:logout' %}"&gt;ログアウト&lt;/a&gt; {% endcomment %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{% comment %} ログアウト画面がpostしか許可しない。postで処理するための措置。 {% endcomment %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"post"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{% url 'accounts:logout' %}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>csrf_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nav-link mx-3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ログアウト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nav-link mx-3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{% url 'accounts:login' %}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nav-link mx-3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{% url 'accounts:signup' %}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>会員登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>endif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"p-4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>endblock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>endblock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://cdn.jsdelivr.net/npm/bootstrap@5.3.0/dist/js/bootstrap.bundle.min.js"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>integrity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sha384-geWF76RCwLtnZ8qwWowPQNguL3RmwHVBC9FhGdlKrxdiJJigb/j/68SIy3Te4Bkz"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>crossorigin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"anonymous"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,13 +3860,61 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +3929,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -343,10 +4217,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44628549-523A-4C30-9399-4105C41DF622}">
+  <dimension ref="B1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="107.875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3767A514-E92F-4FDD-9D13-1F19488A78B2}">
+  <dimension ref="B1:B56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="130.875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
